--- a/predictions полгода до/Прогнозы_ProphetAdd.xlsx
+++ b/predictions полгода до/Прогнозы_ProphetAdd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25039160.42515842</v>
+        <v>23560470.51085279</v>
       </c>
       <c r="C2" t="n">
-        <v>23610069.82092025</v>
+        <v>22452231.48950942</v>
       </c>
       <c r="D2" t="n">
-        <v>22701857.71912122</v>
+        <v>22607395.43382628</v>
       </c>
       <c r="E2" t="n">
-        <v>23122068.39007011</v>
+        <v>23020959.24219535</v>
       </c>
       <c r="F2" t="n">
-        <v>23813375.23332682</v>
+        <v>23884966.70605286</v>
       </c>
       <c r="G2" t="n">
-        <v>24889549.44691521</v>
+        <v>20982684.9915712</v>
       </c>
       <c r="H2" t="n">
-        <v>22094264.7826486</v>
+        <v>25168632.12822552</v>
       </c>
       <c r="I2" t="n">
-        <v>26327428.16349428</v>
+        <v>24972330.49188096</v>
       </c>
       <c r="J2" t="n">
-        <v>25891799.5936216</v>
+        <v>24597003.21415921</v>
       </c>
       <c r="K2" t="n">
-        <v>25957168.85953266</v>
+        <v>25603357.97403117</v>
       </c>
       <c r="L2" t="n">
-        <v>27272171.45232523</v>
+        <v>24422946.85203877</v>
       </c>
       <c r="M2" t="n">
-        <v>26338681.36539337</v>
+        <v>24261576.04208046</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2883197.580445589</v>
+        <v>3812578.969291269</v>
       </c>
       <c r="C3" t="n">
-        <v>3230722.01562635</v>
+        <v>4364885.330611539</v>
       </c>
       <c r="D3" t="n">
-        <v>3871197.852376813</v>
+        <v>4783737.979410157</v>
       </c>
       <c r="E3" t="n">
-        <v>4342146.707073981</v>
+        <v>4924216.886884417</v>
       </c>
       <c r="F3" t="n">
-        <v>4483774.622726703</v>
+        <v>6145942.262945926</v>
       </c>
       <c r="G3" t="n">
-        <v>5661080.514398966</v>
+        <v>4286592.007812576</v>
       </c>
       <c r="H3" t="n">
-        <v>3699877.333226109</v>
+        <v>4052985.914250975</v>
       </c>
       <c r="I3" t="n">
-        <v>3337793.807425556</v>
+        <v>5814036.73305414</v>
       </c>
       <c r="J3" t="n">
-        <v>5196537.256655752</v>
+        <v>6900982.939160338</v>
       </c>
       <c r="K3" t="n">
-        <v>6339320.865479078</v>
+        <v>5818361.952358048</v>
       </c>
       <c r="L3" t="n">
-        <v>5224131.094410723</v>
+        <v>6014924.287070613</v>
       </c>
       <c r="M3" t="n">
-        <v>5363129.645697194</v>
+        <v>5988505.836435875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1918501.635534425</v>
+        <v>1644533.53869048</v>
       </c>
       <c r="C4" t="n">
-        <v>1786089.596784778</v>
+        <v>2026407.005283547</v>
       </c>
       <c r="D4" t="n">
-        <v>2024075.991303378</v>
+        <v>2569821.340473503</v>
       </c>
       <c r="E4" t="n">
-        <v>2268636.522410708</v>
+        <v>3152251.540378002</v>
       </c>
       <c r="F4" t="n">
-        <v>2481895.10294278</v>
+        <v>4003798.328646767</v>
       </c>
       <c r="G4" t="n">
-        <v>3019310.259638031</v>
+        <v>3920620.019614266</v>
       </c>
       <c r="H4" t="n">
-        <v>2754265.678639054</v>
+        <v>3949540.449020686</v>
       </c>
       <c r="I4" t="n">
-        <v>2742651.336827512</v>
+        <v>3560279.052140686</v>
       </c>
       <c r="J4" t="n">
-        <v>2586316.262577887</v>
+        <v>4478736.591648569</v>
       </c>
       <c r="K4" t="n">
-        <v>3128737.930471802</v>
+        <v>4657017.914687422</v>
       </c>
       <c r="L4" t="n">
-        <v>3057657.239719318</v>
+        <v>4246335.223316808</v>
       </c>
       <c r="M4" t="n">
-        <v>2670361.269884191</v>
+        <v>3235940.862687526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-92101.424083316</v>
+        <v>17770910.69365275</v>
       </c>
       <c r="C5" t="n">
-        <v>-26120.21112850052</v>
+        <v>19306829.32067154</v>
       </c>
       <c r="D5" t="n">
-        <v>51052.52116190718</v>
+        <v>19630548.9618649</v>
       </c>
       <c r="E5" t="n">
-        <v>141217.7387950129</v>
+        <v>20425551.11617366</v>
       </c>
       <c r="F5" t="n">
-        <v>220312.9278971133</v>
+        <v>30909501.91965011</v>
       </c>
       <c r="G5" t="n">
-        <v>260869.7068904067</v>
+        <v>13743694.10211428</v>
       </c>
       <c r="H5" t="n">
-        <v>252035.6325809561</v>
+        <v>22338911.30529376</v>
       </c>
       <c r="I5" t="n">
-        <v>196172.5225769283</v>
+        <v>25002381.33550806</v>
       </c>
       <c r="J5" t="n">
-        <v>327924.3068521843</v>
+        <v>21458846.7328315</v>
       </c>
       <c r="K5" t="n">
-        <v>417311.2691155184</v>
+        <v>20637752.05619861</v>
       </c>
       <c r="L5" t="n">
-        <v>360951.3359583404</v>
+        <v>21927724.07942846</v>
       </c>
       <c r="M5" t="n">
-        <v>61831.97694376571</v>
+        <v>23632209.49712935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6556940.790166993</v>
+        <v>5231126.946766488</v>
       </c>
       <c r="C6" t="n">
-        <v>8029031.94422473</v>
+        <v>5175393.901249295</v>
       </c>
       <c r="D6" t="n">
-        <v>7948715.899548524</v>
+        <v>3962541.343429092</v>
       </c>
       <c r="E6" t="n">
-        <v>7792623.638298946</v>
+        <v>6305023.729226683</v>
       </c>
       <c r="F6" t="n">
-        <v>8854067.245244913</v>
+        <v>4917617.312040757</v>
       </c>
       <c r="G6" t="n">
-        <v>15926586.44892835</v>
+        <v>4015509.429753871</v>
       </c>
       <c r="H6" t="n">
-        <v>5635198.322876008</v>
+        <v>5614059.988572922</v>
       </c>
       <c r="I6" t="n">
-        <v>9730924.502688741</v>
+        <v>6761590.748739826</v>
       </c>
       <c r="J6" t="n">
-        <v>9457945.734113827</v>
+        <v>6337843.527762786</v>
       </c>
       <c r="K6" t="n">
-        <v>8517167.338821054</v>
+        <v>4557949.901210522</v>
       </c>
       <c r="L6" t="n">
-        <v>8447197.662443979</v>
+        <v>5704540.375560566</v>
       </c>
       <c r="M6" t="n">
-        <v>8772295.78739498</v>
+        <v>6135992.714769095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1571542.915490691</v>
+        <v>4233247.690301756</v>
       </c>
       <c r="C7" t="n">
-        <v>1598145.88499199</v>
+        <v>4477287.334397956</v>
       </c>
       <c r="D7" t="n">
-        <v>2316215.401535792</v>
+        <v>5129459.010551346</v>
       </c>
       <c r="E7" t="n">
-        <v>3061483.167993872</v>
+        <v>4877207.8754052</v>
       </c>
       <c r="F7" t="n">
-        <v>2570278.80326127</v>
+        <v>5831716.024929214</v>
       </c>
       <c r="G7" t="n">
-        <v>3248066.35418067</v>
+        <v>5201842.771107709</v>
       </c>
       <c r="H7" t="n">
-        <v>875036.2781013069</v>
+        <v>5645964.401817324</v>
       </c>
       <c r="I7" t="n">
-        <v>3151001.922102078</v>
+        <v>8146485.12668222</v>
       </c>
       <c r="J7" t="n">
-        <v>2815253.509195453</v>
+        <v>7485753.928533273</v>
       </c>
       <c r="K7" t="n">
-        <v>3099235.520281289</v>
+        <v>5957442.093485062</v>
       </c>
       <c r="L7" t="n">
-        <v>2236278.291424176</v>
+        <v>6985754.462973458</v>
       </c>
       <c r="M7" t="n">
-        <v>2090599.53432717</v>
+        <v>6698399.341500823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2119791.333081673</v>
+        <v>13850391.4044918</v>
       </c>
       <c r="C8" t="n">
-        <v>1599220.680176376</v>
+        <v>17231966.2658517</v>
       </c>
       <c r="D8" t="n">
-        <v>1241466.471574491</v>
+        <v>16841507.71547798</v>
       </c>
       <c r="E8" t="n">
-        <v>1605079.080845902</v>
+        <v>16392495.17066096</v>
       </c>
       <c r="F8" t="n">
-        <v>1713114.707402867</v>
+        <v>24536221.54583533</v>
       </c>
       <c r="G8" t="n">
-        <v>2451317.778309155</v>
+        <v>10986757.76749133</v>
       </c>
       <c r="H8" t="n">
-        <v>1348312.250809953</v>
+        <v>17296461.2698239</v>
       </c>
       <c r="I8" t="n">
-        <v>1599669.35490945</v>
+        <v>19235090.44638588</v>
       </c>
       <c r="J8" t="n">
-        <v>1840555.320023405</v>
+        <v>18791650.0134808</v>
       </c>
       <c r="K8" t="n">
-        <v>1625325.130924855</v>
+        <v>16570511.18901308</v>
       </c>
       <c r="L8" t="n">
-        <v>1455548.744482953</v>
+        <v>18918223.17254345</v>
       </c>
       <c r="M8" t="n">
-        <v>1638908.166639067</v>
+        <v>17775649.52304285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>270881.9516664789</v>
+        <v>25245755.13243658</v>
       </c>
       <c r="C9" t="n">
-        <v>510774.3781806524</v>
+        <v>25072987.25620674</v>
       </c>
       <c r="D9" t="n">
-        <v>711356.2388351507</v>
+        <v>25436169.58838844</v>
       </c>
       <c r="E9" t="n">
-        <v>855072.6540177789</v>
+        <v>25003518.36851843</v>
       </c>
       <c r="F9" t="n">
-        <v>900615.4847291253</v>
+        <v>31247088.14219095</v>
       </c>
       <c r="G9" t="n">
-        <v>826725.9912443802</v>
+        <v>24226522.53048971</v>
       </c>
       <c r="H9" t="n">
-        <v>646770.2589465964</v>
+        <v>24263794.08249262</v>
       </c>
       <c r="I9" t="n">
-        <v>717463.8420957656</v>
+        <v>26209574.41510649</v>
       </c>
       <c r="J9" t="n">
-        <v>1430284.059442802</v>
+        <v>30449394.32996403</v>
       </c>
       <c r="K9" t="n">
-        <v>1422681.427798097</v>
+        <v>30529375.2405203</v>
       </c>
       <c r="L9" t="n">
-        <v>1110017.70660535</v>
+        <v>34861006.05926758</v>
       </c>
       <c r="M9" t="n">
-        <v>1314804.97730059</v>
+        <v>30408405.62466497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3695655.271574023</v>
+        <v>2429400.920778092</v>
       </c>
       <c r="C10" t="n">
-        <v>4092002.976519122</v>
+        <v>3228657.000746469</v>
       </c>
       <c r="D10" t="n">
-        <v>4756976.911240082</v>
+        <v>4544570.022795094</v>
       </c>
       <c r="E10" t="n">
-        <v>4267535.21366373</v>
+        <v>5512170.672960663</v>
       </c>
       <c r="F10" t="n">
-        <v>4230012.62180578</v>
+        <v>6783599.339988269</v>
       </c>
       <c r="G10" t="n">
-        <v>6254565.008604817</v>
+        <v>5652564.3569968</v>
       </c>
       <c r="H10" t="n">
-        <v>2922159.139546075</v>
+        <v>5269827.173617498</v>
       </c>
       <c r="I10" t="n">
-        <v>4334358.439109505</v>
+        <v>7937466.129356507</v>
       </c>
       <c r="J10" t="n">
-        <v>7027907.994267614</v>
+        <v>8095813.708555804</v>
       </c>
       <c r="K10" t="n">
-        <v>4053545.194655436</v>
+        <v>8010110.834419305</v>
       </c>
       <c r="L10" t="n">
-        <v>4311250.553649247</v>
+        <v>8662440.729181379</v>
       </c>
       <c r="M10" t="n">
-        <v>4779582.06950321</v>
+        <v>6648307.427280969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5649566.223494089</v>
+        <v>8605476.7981304</v>
       </c>
       <c r="C11" t="n">
-        <v>4890611.558968035</v>
+        <v>9458025.793865191</v>
       </c>
       <c r="D11" t="n">
-        <v>5077493.948135508</v>
+        <v>10886374.64252214</v>
       </c>
       <c r="E11" t="n">
-        <v>3788642.826980761</v>
+        <v>11304398.04760455</v>
       </c>
       <c r="F11" t="n">
-        <v>6127065.346892319</v>
+        <v>10141319.92469302</v>
       </c>
       <c r="G11" t="n">
-        <v>4676638.799670692</v>
+        <v>10442552.04970547</v>
       </c>
       <c r="H11" t="n">
-        <v>4826774.316231096</v>
+        <v>11821269.98935912</v>
       </c>
       <c r="I11" t="n">
-        <v>5398270.00267641</v>
+        <v>11965839.27530115</v>
       </c>
       <c r="J11" t="n">
-        <v>5949195.913860992</v>
+        <v>11540506.39658803</v>
       </c>
       <c r="K11" t="n">
-        <v>6197105.887757068</v>
+        <v>11879030.75652671</v>
       </c>
       <c r="L11" t="n">
-        <v>4645481.805340127</v>
+        <v>11337093.02283172</v>
       </c>
       <c r="M11" t="n">
-        <v>6494357.730631535</v>
+        <v>12215254.36101661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>776419.3401145997</v>
+        <v>33251169.18995562</v>
       </c>
       <c r="C12" t="n">
-        <v>478957.8661323884</v>
+        <v>39708935.92009583</v>
       </c>
       <c r="D12" t="n">
-        <v>240698.0895843206</v>
+        <v>46861876.35475604</v>
       </c>
       <c r="E12" t="n">
-        <v>394423.8620463297</v>
+        <v>41629837.17248376</v>
       </c>
       <c r="F12" t="n">
-        <v>528931.3831297196</v>
+        <v>33194069.63830317</v>
       </c>
       <c r="G12" t="n">
-        <v>731058.130657858</v>
+        <v>35385396.06284701</v>
       </c>
       <c r="H12" t="n">
-        <v>-201029.09134809</v>
+        <v>33028656.21652605</v>
       </c>
       <c r="I12" t="n">
-        <v>908980.7466795081</v>
+        <v>39704743.29537505</v>
       </c>
       <c r="J12" t="n">
-        <v>1307215.399763847</v>
+        <v>32894815.23563503</v>
       </c>
       <c r="K12" t="n">
-        <v>757418.271125703</v>
+        <v>30389556.50807194</v>
       </c>
       <c r="L12" t="n">
-        <v>661535.3232563352</v>
+        <v>38524670.57157218</v>
       </c>
       <c r="M12" t="n">
-        <v>132293.0754523876</v>
+        <v>46412788.43822757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667835.5462683273</v>
+        <v>43317875.27815563</v>
       </c>
       <c r="C13" t="n">
-        <v>630364.5034977775</v>
+        <v>42670037.59692976</v>
       </c>
       <c r="D13" t="n">
-        <v>588959.9376710464</v>
+        <v>43791602.27536169</v>
       </c>
       <c r="E13" t="n">
-        <v>887714.3843153014</v>
+        <v>41332296.78348121</v>
       </c>
       <c r="F13" t="n">
-        <v>651879.3879399927</v>
+        <v>40741614.37388684</v>
       </c>
       <c r="G13" t="n">
-        <v>778054.2950086652</v>
+        <v>31503743.764146</v>
       </c>
       <c r="H13" t="n">
-        <v>668643.4285179628</v>
+        <v>34364739.62661248</v>
       </c>
       <c r="I13" t="n">
-        <v>617335.9644241341</v>
+        <v>38544721.13155381</v>
       </c>
       <c r="J13" t="n">
-        <v>888481.6719311454</v>
+        <v>36581644.32054185</v>
       </c>
       <c r="K13" t="n">
-        <v>985806.3754458395</v>
+        <v>30699280.22083255</v>
       </c>
       <c r="L13" t="n">
-        <v>756680.4663785435</v>
+        <v>38249208.015763</v>
       </c>
       <c r="M13" t="n">
-        <v>929864.8316353718</v>
+        <v>45222925.26534361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>998459.1272416568</v>
+        <v>32842.70747260342</v>
       </c>
       <c r="C14" t="n">
-        <v>669662.7322134055</v>
+        <v>80638.71798088282</v>
       </c>
       <c r="D14" t="n">
-        <v>625573.0895552798</v>
+        <v>151438.4067571271</v>
       </c>
       <c r="E14" t="n">
-        <v>933404.186728313</v>
+        <v>225917.4896497545</v>
       </c>
       <c r="F14" t="n">
-        <v>754266.1329459558</v>
+        <v>278469.3455088805</v>
       </c>
       <c r="G14" t="n">
-        <v>944551.928716826</v>
+        <v>296713.7449098417</v>
       </c>
       <c r="H14" t="n">
-        <v>936685.0182777807</v>
+        <v>367629.6509028136</v>
       </c>
       <c r="I14" t="n">
-        <v>602607.4913760975</v>
+        <v>333370.6994740227</v>
       </c>
       <c r="J14" t="n">
-        <v>2247602.302476255</v>
+        <v>420650.1509177563</v>
       </c>
       <c r="K14" t="n">
-        <v>1306059.279396066</v>
+        <v>514207.1070347566</v>
       </c>
       <c r="L14" t="n">
-        <v>838800.8053033111</v>
+        <v>439140.7089460401</v>
       </c>
       <c r="M14" t="n">
-        <v>1122315.385232882</v>
+        <v>211683.466521985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>520805.004506227</v>
+        <v>4454752.248740802</v>
       </c>
       <c r="C15" t="n">
-        <v>363889.6344728399</v>
+        <v>4126710.555898935</v>
       </c>
       <c r="D15" t="n">
-        <v>357039.4869985057</v>
+        <v>3748936.283754442</v>
       </c>
       <c r="E15" t="n">
-        <v>386880.7903033685</v>
+        <v>4429228.915224259</v>
       </c>
       <c r="F15" t="n">
-        <v>366167.2917210083</v>
+        <v>4241089.058044475</v>
       </c>
       <c r="G15" t="n">
-        <v>705317.2984035423</v>
+        <v>3907369.941724511</v>
       </c>
       <c r="H15" t="n">
-        <v>621411.5389601688</v>
+        <v>3469501.096091586</v>
       </c>
       <c r="I15" t="n">
-        <v>494151.4469227591</v>
+        <v>4385570.552873726</v>
       </c>
       <c r="J15" t="n">
-        <v>596749.86830536</v>
+        <v>5074403.859763477</v>
       </c>
       <c r="K15" t="n">
-        <v>537212.8239103178</v>
+        <v>4750963.678691876</v>
       </c>
       <c r="L15" t="n">
-        <v>569945.234776811</v>
+        <v>4408444.595444566</v>
       </c>
       <c r="M15" t="n">
-        <v>497431.962738762</v>
+        <v>4776407.763886267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355451.5966590139</v>
+        <v>8170258.221679894</v>
       </c>
       <c r="C16" t="n">
-        <v>330445.9628273156</v>
+        <v>11047616.19184949</v>
       </c>
       <c r="D16" t="n">
-        <v>353720.069339837</v>
+        <v>10180136.71469386</v>
       </c>
       <c r="E16" t="n">
-        <v>391730.6784818347</v>
+        <v>11959147.23751306</v>
       </c>
       <c r="F16" t="n">
-        <v>354048.5057053315</v>
+        <v>13386950.77286613</v>
       </c>
       <c r="G16" t="n">
-        <v>680953.326907969</v>
+        <v>11689784.018055</v>
       </c>
       <c r="H16" t="n">
-        <v>383532.5463225692</v>
+        <v>10509989.16738923</v>
       </c>
       <c r="I16" t="n">
-        <v>567750.8697383814</v>
+        <v>12595239.83775268</v>
       </c>
       <c r="J16" t="n">
-        <v>621990.42784108</v>
+        <v>11305534.57401328</v>
       </c>
       <c r="K16" t="n">
-        <v>606577.6163351927</v>
+        <v>11195945.70304289</v>
       </c>
       <c r="L16" t="n">
-        <v>525807.6334297408</v>
+        <v>11740026.44317686</v>
       </c>
       <c r="M16" t="n">
-        <v>536997.1393406903</v>
+        <v>11674985.51419391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1669245.82578709</v>
+        <v>5416559.849212431</v>
       </c>
       <c r="C17" t="n">
-        <v>2032705.064868626</v>
+        <v>5707923.901558377</v>
       </c>
       <c r="D17" t="n">
-        <v>2359187.282789699</v>
+        <v>5907615.825552963</v>
       </c>
       <c r="E17" t="n">
-        <v>2305874.452780988</v>
+        <v>6109789.264488626</v>
       </c>
       <c r="F17" t="n">
-        <v>2452665.680456785</v>
+        <v>5593219.258309802</v>
       </c>
       <c r="G17" t="n">
-        <v>2337699.959720746</v>
+        <v>5410665.364482875</v>
       </c>
       <c r="H17" t="n">
-        <v>2149987.492997665</v>
+        <v>6055361.596976863</v>
       </c>
       <c r="I17" t="n">
-        <v>2855081.184234411</v>
+        <v>5896018.571610527</v>
       </c>
       <c r="J17" t="n">
-        <v>3428088.059936596</v>
+        <v>5470355.570610142</v>
       </c>
       <c r="K17" t="n">
-        <v>3627060.013732364</v>
+        <v>5781007.833171291</v>
       </c>
       <c r="L17" t="n">
-        <v>2763011.492856314</v>
+        <v>6654379.357218123</v>
       </c>
       <c r="M17" t="n">
-        <v>3295338.158912362</v>
+        <v>6459609.382124444</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1346374.794258912</v>
+        <v>3283793.93486401</v>
       </c>
       <c r="C18" t="n">
-        <v>1159246.403563871</v>
+        <v>3752331.891974533</v>
       </c>
       <c r="D18" t="n">
-        <v>1654315.239899093</v>
+        <v>3703291.979804123</v>
       </c>
       <c r="E18" t="n">
-        <v>1388130.424455538</v>
+        <v>4003349.97917649</v>
       </c>
       <c r="F18" t="n">
-        <v>1322441.371975085</v>
+        <v>4164951.984785075</v>
       </c>
       <c r="G18" t="n">
-        <v>3299514.555631126</v>
+        <v>4511759.281792419</v>
       </c>
       <c r="H18" t="n">
-        <v>1124221.123910864</v>
+        <v>3610616.793265259</v>
       </c>
       <c r="I18" t="n">
-        <v>1616049.798728901</v>
+        <v>4629003.705322657</v>
       </c>
       <c r="J18" t="n">
-        <v>1661240.583500004</v>
+        <v>3571438.920457769</v>
       </c>
       <c r="K18" t="n">
-        <v>1606880.682431039</v>
+        <v>4351406.086276283</v>
       </c>
       <c r="L18" t="n">
-        <v>1426736.446975357</v>
+        <v>5513008.343553076</v>
       </c>
       <c r="M18" t="n">
-        <v>1925783.882162489</v>
+        <v>3717668.671875539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97373.33334203067</v>
+        <v>6600012.596541791</v>
       </c>
       <c r="C19" t="n">
-        <v>-12177.37272780283</v>
+        <v>6234309.233786381</v>
       </c>
       <c r="D19" t="n">
-        <v>-19506.12609982347</v>
+        <v>5988057.112046135</v>
       </c>
       <c r="E19" t="n">
-        <v>104031.3934371165</v>
+        <v>6184285.557963002</v>
       </c>
       <c r="F19" t="n">
-        <v>-18029.41369818876</v>
+        <v>4801112.578472016</v>
       </c>
       <c r="G19" t="n">
-        <v>60552.13002269923</v>
+        <v>3454035.368789252</v>
       </c>
       <c r="H19" t="n">
-        <v>-111166.0469550064</v>
+        <v>5036415.362448082</v>
       </c>
       <c r="I19" t="n">
-        <v>21925.48690850234</v>
+        <v>6030940.053438243</v>
       </c>
       <c r="J19" t="n">
-        <v>157335.6350822064</v>
+        <v>3705782.372488297</v>
       </c>
       <c r="K19" t="n">
-        <v>-60130.53877355525</v>
+        <v>3298222.977128533</v>
       </c>
       <c r="L19" t="n">
-        <v>31397.6636087889</v>
+        <v>6179849.552519818</v>
       </c>
       <c r="M19" t="n">
-        <v>-162929.9539178577</v>
+        <v>5316282.476521914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>863869.0376868437</v>
+        <v>4077014.27624593</v>
       </c>
       <c r="C20" t="n">
-        <v>1198623.120792473</v>
+        <v>4030220.974642547</v>
       </c>
       <c r="D20" t="n">
-        <v>3433105.323176198</v>
+        <v>3778651.174611685</v>
       </c>
       <c r="E20" t="n">
-        <v>1124208.837459917</v>
+        <v>4238828.916547984</v>
       </c>
       <c r="F20" t="n">
-        <v>1862604.971051223</v>
+        <v>4274555.208421897</v>
       </c>
       <c r="G20" t="n">
-        <v>2733404.995697709</v>
+        <v>3186629.40184933</v>
       </c>
       <c r="H20" t="n">
-        <v>348443.8397648295</v>
+        <v>3586472.347576491</v>
       </c>
       <c r="I20" t="n">
-        <v>1400082.789972421</v>
+        <v>3357515.409226235</v>
       </c>
       <c r="J20" t="n">
-        <v>1666347.474456389</v>
+        <v>3358580.923054675</v>
       </c>
       <c r="K20" t="n">
-        <v>1894944.888083659</v>
+        <v>3485135.849152572</v>
       </c>
       <c r="L20" t="n">
-        <v>1031540.195559319</v>
+        <v>4865784.549825596</v>
       </c>
       <c r="M20" t="n">
-        <v>1529965.177222539</v>
+        <v>3878325.193470768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966120.8706749154</v>
+        <v>2438995.61645656</v>
       </c>
       <c r="C21" t="n">
-        <v>792645.6315068183</v>
+        <v>2422354.476480927</v>
       </c>
       <c r="D21" t="n">
-        <v>748919.8324131295</v>
+        <v>3408946.788627717</v>
       </c>
       <c r="E21" t="n">
-        <v>1104309.58466628</v>
+        <v>3569991.977956723</v>
       </c>
       <c r="F21" t="n">
-        <v>918481.8285421064</v>
+        <v>3395346.503246634</v>
       </c>
       <c r="G21" t="n">
-        <v>675286.5596525995</v>
+        <v>2956773.329331526</v>
       </c>
       <c r="H21" t="n">
-        <v>643169.6933157723</v>
+        <v>2418485.214021395</v>
       </c>
       <c r="I21" t="n">
-        <v>1456091.902114367</v>
+        <v>2814705.035515959</v>
       </c>
       <c r="J21" t="n">
-        <v>1176916.186494521</v>
+        <v>2759614.747488356</v>
       </c>
       <c r="K21" t="n">
-        <v>1598011.525549808</v>
+        <v>3924709.41307831</v>
       </c>
       <c r="L21" t="n">
-        <v>719283.1692228487</v>
+        <v>3477755.722633854</v>
       </c>
       <c r="M21" t="n">
-        <v>1243867.696311973</v>
+        <v>2342367.123936741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>716758.2361518899</v>
+        <v>10997849.79596943</v>
       </c>
       <c r="C22" t="n">
-        <v>668124.19345342</v>
+        <v>12253277.79056539</v>
       </c>
       <c r="D22" t="n">
-        <v>784720.948658295</v>
+        <v>14091545.55172015</v>
       </c>
       <c r="E22" t="n">
-        <v>959036.7675764604</v>
+        <v>12518597.49430968</v>
       </c>
       <c r="F22" t="n">
-        <v>1311959.432619443</v>
+        <v>12079376.30070046</v>
       </c>
       <c r="G22" t="n">
-        <v>1572819.298294274</v>
+        <v>10869547.83194226</v>
       </c>
       <c r="H22" t="n">
-        <v>1463737.679905927</v>
+        <v>12678097.49046893</v>
       </c>
       <c r="I22" t="n">
-        <v>1176479.555768401</v>
+        <v>12381156.58291998</v>
       </c>
       <c r="J22" t="n">
-        <v>1368728.735418791</v>
+        <v>13054824.50725467</v>
       </c>
       <c r="K22" t="n">
-        <v>1412630.749743622</v>
+        <v>11699775.4642109</v>
       </c>
       <c r="L22" t="n">
-        <v>1356449.191068843</v>
+        <v>12619950.10211383</v>
       </c>
       <c r="M22" t="n">
-        <v>1315909.315111365</v>
+        <v>13081233.07352037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35155.9931995447</v>
+        <v>3821370.901583255</v>
       </c>
       <c r="C23" t="n">
-        <v>41036.17953913411</v>
+        <v>8278963.714156672</v>
       </c>
       <c r="D23" t="n">
-        <v>51005.26866874828</v>
+        <v>11401934.55420928</v>
       </c>
       <c r="E23" t="n">
-        <v>63388.34360749951</v>
+        <v>9577830.490078725</v>
       </c>
       <c r="F23" t="n">
-        <v>77297.73554499468</v>
+        <v>7663470.738915313</v>
       </c>
       <c r="G23" t="n">
-        <v>168398.6634740384</v>
+        <v>4333398.752535799</v>
       </c>
       <c r="H23" t="n">
-        <v>80960.30319712203</v>
+        <v>3003675.180705949</v>
       </c>
       <c r="I23" t="n">
-        <v>128512.4885914201</v>
+        <v>6210727.610095953</v>
       </c>
       <c r="J23" t="n">
-        <v>70234.63779829885</v>
+        <v>5900131.841853355</v>
       </c>
       <c r="K23" t="n">
-        <v>59687.40954296754</v>
+        <v>3605852.982650972</v>
       </c>
       <c r="L23" t="n">
-        <v>84335.75315275149</v>
+        <v>5580945.439095413</v>
       </c>
       <c r="M23" t="n">
-        <v>72263.05871236726</v>
+        <v>5005253.120385118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7348806.987678505</v>
+        <v>10179525.49965888</v>
       </c>
       <c r="C24" t="n">
-        <v>6283051.062518805</v>
+        <v>8453661.081291452</v>
       </c>
       <c r="D24" t="n">
-        <v>6802314.27297722</v>
+        <v>10411225.32543902</v>
       </c>
       <c r="E24" t="n">
-        <v>7786595.388280241</v>
+        <v>10382455.94398868</v>
       </c>
       <c r="F24" t="n">
-        <v>6997502.213604185</v>
+        <v>10810132.64527999</v>
       </c>
       <c r="G24" t="n">
-        <v>10837029.0202771</v>
+        <v>7803444.202400664</v>
       </c>
       <c r="H24" t="n">
-        <v>5033509.586978884</v>
+        <v>11210928.17787829</v>
       </c>
       <c r="I24" t="n">
-        <v>6851817.790840241</v>
+        <v>10937911.0095092</v>
       </c>
       <c r="J24" t="n">
-        <v>9540401.248227434</v>
+        <v>11525638.67115382</v>
       </c>
       <c r="K24" t="n">
-        <v>8130575.937152253</v>
+        <v>9778768.802577617</v>
       </c>
       <c r="L24" t="n">
-        <v>8156098.9272935</v>
+        <v>10816560.48590028</v>
       </c>
       <c r="M24" t="n">
-        <v>7582728.127923845</v>
+        <v>10658058.08692806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3499688.94950487</v>
+        <v>5269379.860909618</v>
       </c>
       <c r="C25" t="n">
-        <v>3558026.863670028</v>
+        <v>5915305.722494769</v>
       </c>
       <c r="D25" t="n">
-        <v>3641797.705072466</v>
+        <v>6579671.564186535</v>
       </c>
       <c r="E25" t="n">
-        <v>3739659.306179464</v>
+        <v>6321033.293474245</v>
       </c>
       <c r="F25" t="n">
-        <v>3584114.61011148</v>
+        <v>7380606.98837915</v>
       </c>
       <c r="G25" t="n">
-        <v>4262332.139416985</v>
+        <v>4606330.483267767</v>
       </c>
       <c r="H25" t="n">
-        <v>1979937.334653504</v>
+        <v>5807898.586218812</v>
       </c>
       <c r="I25" t="n">
-        <v>4035742.1338259</v>
+        <v>7805369.567026328</v>
       </c>
       <c r="J25" t="n">
-        <v>3523607.069496962</v>
+        <v>6017528.004750582</v>
       </c>
       <c r="K25" t="n">
-        <v>3763200.73328523</v>
+        <v>4459887.768093486</v>
       </c>
       <c r="L25" t="n">
-        <v>3177231.182383405</v>
+        <v>5051189.678889219</v>
       </c>
       <c r="M25" t="n">
-        <v>4739987.088104554</v>
+        <v>6443640.890889792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9709086.71930659</v>
+        <v>12159365.31074243</v>
       </c>
       <c r="C26" t="n">
-        <v>9957607.113768242</v>
+        <v>11918501.1865934</v>
       </c>
       <c r="D26" t="n">
-        <v>10182860.28016426</v>
+        <v>12902758.98270553</v>
       </c>
       <c r="E26" t="n">
-        <v>10063039.87434376</v>
+        <v>12366475.32303787</v>
       </c>
       <c r="F26" t="n">
-        <v>9470583.617644886</v>
+        <v>12612710.30955382</v>
       </c>
       <c r="G26" t="n">
-        <v>11188692.10796171</v>
+        <v>10487003.61652434</v>
       </c>
       <c r="H26" t="n">
-        <v>9643478.716194242</v>
+        <v>11733381.88043181</v>
       </c>
       <c r="I26" t="n">
-        <v>9429065.548159495</v>
+        <v>12998273.53608416</v>
       </c>
       <c r="J26" t="n">
-        <v>11250087.52572697</v>
+        <v>11057949.78726607</v>
       </c>
       <c r="K26" t="n">
-        <v>13656675.71140501</v>
+        <v>10876790.61707711</v>
       </c>
       <c r="L26" t="n">
-        <v>13261596.65325801</v>
+        <v>12110978.66495292</v>
       </c>
       <c r="M26" t="n">
-        <v>14976758.66086326</v>
+        <v>13410006.47003183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14215827.62308339</v>
+        <v>4741479.781725714</v>
       </c>
       <c r="C27" t="n">
-        <v>15377791.99284686</v>
+        <v>4235684.51999725</v>
       </c>
       <c r="D27" t="n">
-        <v>14982508.76407388</v>
+        <v>4176208.712463232</v>
       </c>
       <c r="E27" t="n">
-        <v>15736591.62907485</v>
+        <v>4576204.355264081</v>
       </c>
       <c r="F27" t="n">
-        <v>15983093.16164247</v>
+        <v>5060200.62963026</v>
       </c>
       <c r="G27" t="n">
-        <v>20590400.76362215</v>
+        <v>4831546.978418366</v>
       </c>
       <c r="H27" t="n">
-        <v>15090231.18839221</v>
+        <v>4848757.152590945</v>
       </c>
       <c r="I27" t="n">
-        <v>15147099.97297223</v>
+        <v>5614951.750500876</v>
       </c>
       <c r="J27" t="n">
-        <v>15294158.30886616</v>
+        <v>5159804.743198495</v>
       </c>
       <c r="K27" t="n">
-        <v>17959768.92755096</v>
+        <v>3602893.142300158</v>
       </c>
       <c r="L27" t="n">
-        <v>16069949.41228472</v>
+        <v>4364222.891888821</v>
       </c>
       <c r="M27" t="n">
-        <v>17366605.18393885</v>
+        <v>5989925.100270992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1933770.927924106</v>
+        <v>14967286.26594794</v>
       </c>
       <c r="C28" t="n">
-        <v>2384926.911130295</v>
+        <v>13496991.57224858</v>
       </c>
       <c r="D28" t="n">
-        <v>3073885.415636496</v>
+        <v>13646534.38667982</v>
       </c>
       <c r="E28" t="n">
-        <v>3990243.067591925</v>
+        <v>10632178.63342158</v>
       </c>
       <c r="F28" t="n">
-        <v>4375259.521451082</v>
+        <v>12875687.74554091</v>
       </c>
       <c r="G28" t="n">
-        <v>5073742.238775896</v>
+        <v>12938199.92329114</v>
       </c>
       <c r="H28" t="n">
-        <v>3509686.715001694</v>
+        <v>15228328.80614292</v>
       </c>
       <c r="I28" t="n">
-        <v>2866856.665848932</v>
+        <v>12744869.80324677</v>
       </c>
       <c r="J28" t="n">
-        <v>6328621.84302754</v>
+        <v>15286850.63269681</v>
       </c>
       <c r="K28" t="n">
-        <v>5921946.520555309</v>
+        <v>12240063.17184784</v>
       </c>
       <c r="L28" t="n">
-        <v>5202672.047610269</v>
+        <v>15092657.80422948</v>
       </c>
       <c r="M28" t="n">
-        <v>5215077.733082233</v>
+        <v>20082887.66605893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7651422.770474386</v>
+        <v>1855873.522120296</v>
       </c>
       <c r="C29" t="n">
-        <v>7808821.360382379</v>
+        <v>1857003.777715801</v>
       </c>
       <c r="D29" t="n">
-        <v>8752925.453439157</v>
+        <v>1764310.46335748</v>
       </c>
       <c r="E29" t="n">
-        <v>10189641.98265619</v>
+        <v>1843867.327838488</v>
       </c>
       <c r="F29" t="n">
-        <v>10520199.61878759</v>
+        <v>1828748.246184615</v>
       </c>
       <c r="G29" t="n">
-        <v>9167927.724688988</v>
+        <v>2059412.458558615</v>
       </c>
       <c r="H29" t="n">
-        <v>9352339.444460575</v>
+        <v>2008489.050778684</v>
       </c>
       <c r="I29" t="n">
-        <v>10533572.74945418</v>
+        <v>2274344.363508366</v>
       </c>
       <c r="J29" t="n">
-        <v>10934706.04649694</v>
+        <v>2263752.498572001</v>
       </c>
       <c r="K29" t="n">
-        <v>10468329.12190532</v>
+        <v>2280101.196752318</v>
       </c>
       <c r="L29" t="n">
-        <v>10699353.25049454</v>
+        <v>2378942.032551624</v>
       </c>
       <c r="M29" t="n">
-        <v>9996153.872651141</v>
+        <v>2377709.050334434</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35667062.83711111</v>
+        <v>884907.4521666153</v>
       </c>
       <c r="C30" t="n">
-        <v>32354489.95988997</v>
+        <v>765910.4557353717</v>
       </c>
       <c r="D30" t="n">
-        <v>38953164.74299564</v>
+        <v>772528.8674364514</v>
       </c>
       <c r="E30" t="n">
-        <v>46208900.14653976</v>
+        <v>770163.081387818</v>
       </c>
       <c r="F30" t="n">
-        <v>41016516.28546637</v>
+        <v>1184007.430020633</v>
       </c>
       <c r="G30" t="n">
-        <v>32540605.00480867</v>
+        <v>855820.6079158909</v>
       </c>
       <c r="H30" t="n">
-        <v>34614769.06590229</v>
+        <v>876638.4635313812</v>
       </c>
       <c r="I30" t="n">
-        <v>32079749.80748272</v>
+        <v>891553.9242499245</v>
       </c>
       <c r="J30" t="n">
-        <v>38865876.18041022</v>
+        <v>923014.8796589902</v>
       </c>
       <c r="K30" t="n">
-        <v>32139039.81922518</v>
+        <v>885906.9812916396</v>
       </c>
       <c r="L30" t="n">
-        <v>29647507.98292012</v>
+        <v>890856.0713142378</v>
       </c>
       <c r="M30" t="n">
-        <v>37716877.0986932</v>
+        <v>947360.2309108544</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34835854.64368124</v>
+        <v>729911.1431898646</v>
       </c>
       <c r="C31" t="n">
-        <v>43610912.49028288</v>
+        <v>965736.0911229787</v>
       </c>
       <c r="D31" t="n">
-        <v>42895492.29838697</v>
+        <v>837022.0275490746</v>
       </c>
       <c r="E31" t="n">
-        <v>43841060.89824493</v>
+        <v>907001.2140992767</v>
       </c>
       <c r="F31" t="n">
-        <v>41255430.77681474</v>
+        <v>722231.9996613422</v>
       </c>
       <c r="G31" t="n">
-        <v>40535217.51506817</v>
+        <v>677218.3810638909</v>
       </c>
       <c r="H31" t="n">
-        <v>31119740.84539781</v>
+        <v>1016443.884675323</v>
       </c>
       <c r="I31" t="n">
-        <v>33954087.92983843</v>
+        <v>946584.4172701532</v>
       </c>
       <c r="J31" t="n">
-        <v>38372194.6141633</v>
+        <v>919192.5407037208</v>
       </c>
       <c r="K31" t="n">
-        <v>36206790.23761646</v>
+        <v>871870.0008136192</v>
       </c>
       <c r="L31" t="n">
-        <v>30112061.18289096</v>
+        <v>662237.6296104947</v>
       </c>
       <c r="M31" t="n">
-        <v>37556771.5047522</v>
+        <v>793665.2455121871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32453.34311667622</v>
+        <v>2136358.260580743</v>
       </c>
       <c r="C32" t="n">
-        <v>67017.09628741453</v>
+        <v>2322157.075477786</v>
       </c>
       <c r="D32" t="n">
-        <v>97778.42889100323</v>
+        <v>2274474.804417355</v>
       </c>
       <c r="E32" t="n">
-        <v>123890.0860821375</v>
+        <v>2071391.043173973</v>
       </c>
       <c r="F32" t="n">
-        <v>137931.9790401648</v>
+        <v>2311021.233474392</v>
       </c>
       <c r="G32" t="n">
-        <v>134391.2468646781</v>
+        <v>2084283.723809721</v>
       </c>
       <c r="H32" t="n">
-        <v>113651.7615469595</v>
+        <v>2193370.080878058</v>
       </c>
       <c r="I32" t="n">
-        <v>165705.3211442676</v>
+        <v>2351013.33858924</v>
       </c>
       <c r="J32" t="n">
-        <v>207621.6226114057</v>
+        <v>2428353.637475593</v>
       </c>
       <c r="K32" t="n">
-        <v>233812.727759154</v>
+        <v>2455391.387692552</v>
       </c>
       <c r="L32" t="n">
-        <v>262438.1752568414</v>
+        <v>2619946.290575851</v>
       </c>
       <c r="M32" t="n">
-        <v>124620.7892191545</v>
+        <v>2527192.193859858</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294451.342437355</v>
+        <v>3049456.064865458</v>
       </c>
       <c r="C33" t="n">
-        <v>4152797.21878285</v>
+        <v>3001169.189654244</v>
       </c>
       <c r="D33" t="n">
-        <v>3883528.039847598</v>
+        <v>2785207.569566235</v>
       </c>
       <c r="E33" t="n">
-        <v>3582706.519740941</v>
+        <v>2709996.040303665</v>
       </c>
       <c r="F33" t="n">
-        <v>4339090.074468764</v>
+        <v>2846271.202796744</v>
       </c>
       <c r="G33" t="n">
-        <v>4196499.248303569</v>
+        <v>3017119.021822461</v>
       </c>
       <c r="H33" t="n">
-        <v>3867817.412896794</v>
+        <v>2732711.192688175</v>
       </c>
       <c r="I33" t="n">
-        <v>3395108.536865911</v>
+        <v>3067462.848052559</v>
       </c>
       <c r="J33" t="n">
-        <v>4265941.441813096</v>
+        <v>2862991.935420899</v>
       </c>
       <c r="K33" t="n">
-        <v>5045113.721512085</v>
+        <v>3045882.8723998</v>
       </c>
       <c r="L33" t="n">
-        <v>4792720.062139007</v>
+        <v>3436417.228105637</v>
       </c>
       <c r="M33" t="n">
-        <v>4496450.2874308</v>
+        <v>3624290.949127595</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9281195.866817588</v>
+        <v>2425397.360790951</v>
       </c>
       <c r="C34" t="n">
-        <v>7806793.007686248</v>
+        <v>2045141.354416434</v>
       </c>
       <c r="D34" t="n">
-        <v>10734812.61780762</v>
+        <v>2786372.380712071</v>
       </c>
       <c r="E34" t="n">
-        <v>9889450.922192931</v>
+        <v>3131943.349331044</v>
       </c>
       <c r="F34" t="n">
-        <v>11656021.00938884</v>
+        <v>3465871.99935205</v>
       </c>
       <c r="G34" t="n">
-        <v>13040540.80313928</v>
+        <v>2785282.664591365</v>
       </c>
       <c r="H34" t="n">
-        <v>11276893.09478161</v>
+        <v>2387339.126717629</v>
       </c>
       <c r="I34" t="n">
-        <v>10014694.9087544</v>
+        <v>3219426.506202886</v>
       </c>
       <c r="J34" t="n">
-        <v>12178807.72527015</v>
+        <v>2965117.638229802</v>
       </c>
       <c r="K34" t="n">
-        <v>10896507.23632754</v>
+        <v>2740660.631979342</v>
       </c>
       <c r="L34" t="n">
-        <v>10763737.51530799</v>
+        <v>2843054.394092023</v>
       </c>
       <c r="M34" t="n">
-        <v>11253881.36488409</v>
+        <v>2908715.043379398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5541502.059346666</v>
+        <v>2305542.142429838</v>
       </c>
       <c r="C35" t="n">
-        <v>5215547.243058889</v>
+        <v>2276787.278926875</v>
       </c>
       <c r="D35" t="n">
-        <v>5548038.838331566</v>
+        <v>2319039.654534718</v>
       </c>
       <c r="E35" t="n">
-        <v>5803853.832759373</v>
+        <v>2118273.121567052</v>
       </c>
       <c r="F35" t="n">
-        <v>6060725.139631568</v>
+        <v>2192658.00433493</v>
       </c>
       <c r="G35" t="n">
-        <v>5579635.125345442</v>
+        <v>2134670.214875327</v>
       </c>
       <c r="H35" t="n">
-        <v>5404672.683990157</v>
+        <v>2115072.011506923</v>
       </c>
       <c r="I35" t="n">
-        <v>6026727.561144833</v>
+        <v>2356940.323909449</v>
       </c>
       <c r="J35" t="n">
-        <v>5831717.229570338</v>
+        <v>2309509.141784767</v>
       </c>
       <c r="K35" t="n">
-        <v>5468674.192748559</v>
+        <v>2311093.429249056</v>
       </c>
       <c r="L35" t="n">
-        <v>5834027.734755933</v>
+        <v>2497431.806408493</v>
       </c>
       <c r="M35" t="n">
-        <v>6743825.355283624</v>
+        <v>2536239.183420158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3030518.143538602</v>
+        <v>1372164.00707047</v>
       </c>
       <c r="C36" t="n">
-        <v>3426224.189079758</v>
+        <v>1585180.761275375</v>
       </c>
       <c r="D36" t="n">
-        <v>3864037.821935945</v>
+        <v>1615687.17954838</v>
       </c>
       <c r="E36" t="n">
-        <v>3767634.935833413</v>
+        <v>1398387.633024311</v>
       </c>
       <c r="F36" t="n">
-        <v>4016632.633720018</v>
+        <v>1356292.585474835</v>
       </c>
       <c r="G36" t="n">
-        <v>4140649.214952314</v>
+        <v>1347346.219870976</v>
       </c>
       <c r="H36" t="n">
-        <v>4472212.199810773</v>
+        <v>1607538.512110929</v>
       </c>
       <c r="I36" t="n">
-        <v>3579750.406448933</v>
+        <v>1723512.442389684</v>
       </c>
       <c r="J36" t="n">
-        <v>4642642.245670649</v>
+        <v>1339563.958663068</v>
       </c>
       <c r="K36" t="n">
-        <v>3528154.469031775</v>
+        <v>1482421.554871456</v>
       </c>
       <c r="L36" t="n">
-        <v>4256394.986913195</v>
+        <v>1949323.176319792</v>
       </c>
       <c r="M36" t="n">
-        <v>5377677.430967375</v>
+        <v>1911678.90764816</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9144334.874327213</v>
+        <v>4966467.4007469</v>
       </c>
       <c r="C37" t="n">
-        <v>6409984.318797722</v>
+        <v>4598278.722703683</v>
       </c>
       <c r="D37" t="n">
-        <v>6108874.090193034</v>
+        <v>5686663.400746335</v>
       </c>
       <c r="E37" t="n">
-        <v>6000070.716290739</v>
+        <v>4982171.908244314</v>
       </c>
       <c r="F37" t="n">
-        <v>6376648.437654226</v>
+        <v>4562608.119233984</v>
       </c>
       <c r="G37" t="n">
-        <v>5149598.816960813</v>
+        <v>3694664.281301451</v>
       </c>
       <c r="H37" t="n">
-        <v>3906511.332717096</v>
+        <v>3725916.080851161</v>
       </c>
       <c r="I37" t="n">
-        <v>5525695.724860965</v>
+        <v>5488507.973926254</v>
       </c>
       <c r="J37" t="n">
-        <v>6308743.924356745</v>
+        <v>3897696.245730863</v>
       </c>
       <c r="K37" t="n">
-        <v>4169032.780909887</v>
+        <v>3682379.619123903</v>
       </c>
       <c r="L37" t="n">
-        <v>3951406.172721663</v>
+        <v>5339795.824786993</v>
       </c>
       <c r="M37" t="n">
-        <v>7009106.605156475</v>
+        <v>5588558.405121231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2874267.197296417</v>
+        <v>4045294.907736851</v>
       </c>
       <c r="C38" t="n">
-        <v>4176943.209825248</v>
+        <v>4336606.98520266</v>
       </c>
       <c r="D38" t="n">
-        <v>4117074.137524841</v>
+        <v>4406264.513092529</v>
       </c>
       <c r="E38" t="n">
-        <v>3859668.300238381</v>
+        <v>3943025.544764266</v>
       </c>
       <c r="F38" t="n">
-        <v>4322886.485960704</v>
+        <v>4106569.204641668</v>
       </c>
       <c r="G38" t="n">
-        <v>4369724.398377761</v>
+        <v>3467257.502129395</v>
       </c>
       <c r="H38" t="n">
-        <v>3299071.443774184</v>
+        <v>4216302.478946759</v>
       </c>
       <c r="I38" t="n">
-        <v>3720342.812977988</v>
+        <v>3938035.455413444</v>
       </c>
       <c r="J38" t="n">
-        <v>3471225.936902947</v>
+        <v>4049030.951176574</v>
       </c>
       <c r="K38" t="n">
-        <v>3470701.288721795</v>
+        <v>4502204.607523719</v>
       </c>
       <c r="L38" t="n">
-        <v>3603261.267821286</v>
+        <v>4641378.645968038</v>
       </c>
       <c r="M38" t="n">
-        <v>4997863.091044048</v>
+        <v>4657343.736830404</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2155638.008495176</v>
+        <v>5506264.52215919</v>
       </c>
       <c r="C39" t="n">
-        <v>2446427.23474285</v>
+        <v>5786721.391487812</v>
       </c>
       <c r="D39" t="n">
-        <v>2418785.474567483</v>
+        <v>6181002.580329577</v>
       </c>
       <c r="E39" t="n">
-        <v>3367723.919794924</v>
+        <v>5461435.791184679</v>
       </c>
       <c r="F39" t="n">
-        <v>3476332.134802414</v>
+        <v>5590505.4022935</v>
       </c>
       <c r="G39" t="n">
-        <v>3249667.60317275</v>
+        <v>5122698.734796409</v>
       </c>
       <c r="H39" t="n">
-        <v>2773291.94544708</v>
+        <v>4735592.359882596</v>
       </c>
       <c r="I39" t="n">
-        <v>2212776.917480296</v>
+        <v>5454538.055737177</v>
       </c>
       <c r="J39" t="n">
-        <v>2680792.832742891</v>
+        <v>6135012.820415954</v>
       </c>
       <c r="K39" t="n">
-        <v>2572947.734926743</v>
+        <v>6714895.92116558</v>
       </c>
       <c r="L39" t="n">
-        <v>3680981.229293162</v>
+        <v>7197701.62129862</v>
       </c>
       <c r="M39" t="n">
-        <v>3175650.388615363</v>
+        <v>6912541.256262667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10339586.43120499</v>
+        <v>5218123.684256702</v>
       </c>
       <c r="C40" t="n">
-        <v>10388701.46879826</v>
+        <v>5688007.858862928</v>
       </c>
       <c r="D40" t="n">
-        <v>11747233.17841944</v>
+        <v>5890642.407982688</v>
       </c>
       <c r="E40" t="n">
-        <v>13692768.46799251</v>
+        <v>5209687.044150125</v>
       </c>
       <c r="F40" t="n">
-        <v>12201227.33321285</v>
+        <v>5535939.64668739</v>
       </c>
       <c r="G40" t="n">
-        <v>11790276.77997938</v>
+        <v>4638952.58537831</v>
       </c>
       <c r="H40" t="n">
-        <v>10546562.8218765</v>
+        <v>4673408.496442624</v>
       </c>
       <c r="I40" t="n">
-        <v>12263739.08550052</v>
+        <v>5083328.433488455</v>
       </c>
       <c r="J40" t="n">
-        <v>11957715.98678855</v>
+        <v>5895366.075064755</v>
       </c>
       <c r="K40" t="n">
-        <v>12742031.60203307</v>
+        <v>5582022.717740419</v>
       </c>
       <c r="L40" t="n">
-        <v>11460019.86183281</v>
+        <v>6004690.781854486</v>
       </c>
       <c r="M40" t="n">
-        <v>12401953.79650251</v>
+        <v>5839554.896368469</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8838094.051757116</v>
+        <v>3570414.766406735</v>
       </c>
       <c r="C41" t="n">
-        <v>4222928.763226012</v>
+        <v>3382120.06354347</v>
       </c>
       <c r="D41" t="n">
-        <v>8609968.292567585</v>
+        <v>3257517.610412685</v>
       </c>
       <c r="E41" t="n">
-        <v>11652528.38575336</v>
+        <v>3009069.366182475</v>
       </c>
       <c r="F41" t="n">
-        <v>9760590.705797678</v>
+        <v>3563411.382195602</v>
       </c>
       <c r="G41" t="n">
-        <v>7813034.71834279</v>
+        <v>3066932.800036519</v>
       </c>
       <c r="H41" t="n">
-        <v>4493611.765457459</v>
+        <v>2576511.916242199</v>
       </c>
       <c r="I41" t="n">
-        <v>3216968.108636592</v>
+        <v>3300858.950955778</v>
       </c>
       <c r="J41" t="n">
-        <v>6450071.149331258</v>
+        <v>3086930.326160558</v>
       </c>
       <c r="K41" t="n">
-        <v>6053356.501370171</v>
+        <v>3167252.370207871</v>
       </c>
       <c r="L41" t="n">
-        <v>3695921.676991929</v>
+        <v>3542749.412528229</v>
       </c>
       <c r="M41" t="n">
-        <v>5640013.958444517</v>
+        <v>3732311.597774399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11113581.1687085</v>
+        <v>4403365.7609224</v>
       </c>
       <c r="C42" t="n">
-        <v>9742497.423764911</v>
+        <v>5117262.207214754</v>
       </c>
       <c r="D42" t="n">
-        <v>8104173.671905968</v>
+        <v>4705726.123170981</v>
       </c>
       <c r="E42" t="n">
-        <v>10188617.02980457</v>
+        <v>4652413.242880269</v>
       </c>
       <c r="F42" t="n">
-        <v>10285669.22142996</v>
+        <v>4268448.344168062</v>
       </c>
       <c r="G42" t="n">
-        <v>10797257.21592978</v>
+        <v>3734385.94167849</v>
       </c>
       <c r="H42" t="n">
-        <v>7810890.130239252</v>
+        <v>3710629.566447896</v>
       </c>
       <c r="I42" t="n">
-        <v>11180046.82006975</v>
+        <v>4495269.402213299</v>
       </c>
       <c r="J42" t="n">
-        <v>10811459.30079586</v>
+        <v>4103212.982281411</v>
       </c>
       <c r="K42" t="n">
-        <v>11546896.10562651</v>
+        <v>3976943.25698884</v>
       </c>
       <c r="L42" t="n">
-        <v>9925509.679476051</v>
+        <v>4351391.100318252</v>
       </c>
       <c r="M42" t="n">
-        <v>11051774.48184937</v>
+        <v>5032206.027388559</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5958825.840059211</v>
+        <v>2739044.442002025</v>
       </c>
       <c r="C43" t="n">
-        <v>5285148.982087651</v>
+        <v>2848125.276745379</v>
       </c>
       <c r="D43" t="n">
-        <v>5929221.71178059</v>
+        <v>3307494.796322462</v>
       </c>
       <c r="E43" t="n">
-        <v>6609308.933443674</v>
+        <v>3829553.793695679</v>
       </c>
       <c r="F43" t="n">
-        <v>6373465.123419062</v>
+        <v>3046407.400040279</v>
       </c>
       <c r="G43" t="n">
-        <v>7456654.23831946</v>
+        <v>2480493.557175749</v>
       </c>
       <c r="H43" t="n">
-        <v>4700692.421292927</v>
+        <v>1916327.701594289</v>
       </c>
       <c r="I43" t="n">
-        <v>5916935.871852281</v>
+        <v>3262775.815000005</v>
       </c>
       <c r="J43" t="n">
-        <v>7881754.314777948</v>
+        <v>2425728.319630813</v>
       </c>
       <c r="K43" t="n">
-        <v>6111791.703493207</v>
+        <v>2799125.436876246</v>
       </c>
       <c r="L43" t="n">
-        <v>4578918.721753335</v>
+        <v>3257457.507186814</v>
       </c>
       <c r="M43" t="n">
-        <v>5196644.076047266</v>
+        <v>3204024.336975739</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9142039.033309594</v>
+        <v>5692583.727559914</v>
       </c>
       <c r="C44" t="n">
-        <v>11472469.96697843</v>
+        <v>5888638.538581314</v>
       </c>
       <c r="D44" t="n">
-        <v>11354706.53741404</v>
+        <v>5659264.95811825</v>
       </c>
       <c r="E44" t="n">
-        <v>12477550.56077679</v>
+        <v>5840476.510305554</v>
       </c>
       <c r="F44" t="n">
-        <v>12057409.45650638</v>
+        <v>6348426.741479669</v>
       </c>
       <c r="G44" t="n">
-        <v>12356499.25166647</v>
+        <v>4942313.386662817</v>
       </c>
       <c r="H44" t="n">
-        <v>10207146.15072554</v>
+        <v>4524405.224913307</v>
       </c>
       <c r="I44" t="n">
-        <v>11355647.75858473</v>
+        <v>5551548.787017378</v>
       </c>
       <c r="J44" t="n">
-        <v>12582235.13515371</v>
+        <v>5172525.42219941</v>
       </c>
       <c r="K44" t="n">
-        <v>10791059.43476355</v>
+        <v>5008732.032658312</v>
       </c>
       <c r="L44" t="n">
-        <v>10717167.59213406</v>
+        <v>5978019.690466217</v>
       </c>
       <c r="M44" t="n">
-        <v>12001535.5537288</v>
+        <v>6595827.546311141</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4941875.43864902</v>
+        <v>2876481.08118857</v>
       </c>
       <c r="C45" t="n">
-        <v>4729207.446404828</v>
+        <v>3174903.455519287</v>
       </c>
       <c r="D45" t="n">
-        <v>4228697.256393109</v>
+        <v>3169958.703658241</v>
       </c>
       <c r="E45" t="n">
-        <v>4184546.03072331</v>
+        <v>3601742.901582973</v>
       </c>
       <c r="F45" t="n">
-        <v>4602432.63593721</v>
+        <v>3134995.658991978</v>
       </c>
       <c r="G45" t="n">
-        <v>5105302.008727416</v>
+        <v>2223117.589876294</v>
       </c>
       <c r="H45" t="n">
-        <v>4887385.223433746</v>
+        <v>3081433.343206246</v>
       </c>
       <c r="I45" t="n">
-        <v>4912035.960135415</v>
+        <v>3522828.65540674</v>
       </c>
       <c r="J45" t="n">
-        <v>5653493.33511403</v>
+        <v>3177725.591765057</v>
       </c>
       <c r="K45" t="n">
-        <v>5217186.379132707</v>
+        <v>2759326.188742112</v>
       </c>
       <c r="L45" t="n">
-        <v>3683385.703919987</v>
+        <v>3342082.577123183</v>
       </c>
       <c r="M45" t="n">
-        <v>4462224.74109828</v>
+        <v>3536578.226941784</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16193839.47726058</v>
+        <v>2149224.405806208</v>
       </c>
       <c r="C46" t="n">
-        <v>14557407.89096186</v>
+        <v>1983061.549892311</v>
       </c>
       <c r="D46" t="n">
-        <v>13195270.56230346</v>
+        <v>2612521.534684517</v>
       </c>
       <c r="E46" t="n">
-        <v>13547622.57536159</v>
+        <v>2148218.4190775</v>
       </c>
       <c r="F46" t="n">
-        <v>10775651.19907729</v>
+        <v>2049729.637872581</v>
       </c>
       <c r="G46" t="n">
-        <v>13220952.73254866</v>
+        <v>1380530.658651839</v>
       </c>
       <c r="H46" t="n">
-        <v>13397082.40562404</v>
+        <v>1824818.633043058</v>
       </c>
       <c r="I46" t="n">
-        <v>15704251.86550674</v>
+        <v>2179962.854307871</v>
       </c>
       <c r="J46" t="n">
-        <v>12961139.21329256</v>
+        <v>1954369.813011027</v>
       </c>
       <c r="K46" t="n">
-        <v>15762967.15036172</v>
+        <v>2423760.373744141</v>
       </c>
       <c r="L46" t="n">
-        <v>12970199.64736487</v>
+        <v>2052778.796986266</v>
       </c>
       <c r="M46" t="n">
-        <v>16042123.53035133</v>
+        <v>2108669.97116315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1745409.194371858</v>
+        <v>1816295.503804225</v>
       </c>
       <c r="C47" t="n">
-        <v>1758574.202236381</v>
+        <v>1804836.022504528</v>
       </c>
       <c r="D47" t="n">
-        <v>1773614.72499606</v>
+        <v>1871604.431011716</v>
       </c>
       <c r="E47" t="n">
-        <v>1688288.988395475</v>
+        <v>1648068.599903748</v>
       </c>
       <c r="F47" t="n">
-        <v>1766377.669347215</v>
+        <v>1663191.276418723</v>
       </c>
       <c r="G47" t="n">
-        <v>1741532.746076337</v>
+        <v>1788736.579102262</v>
       </c>
       <c r="H47" t="n">
-        <v>1954978.380114839</v>
+        <v>1861935.871253613</v>
       </c>
       <c r="I47" t="n">
-        <v>1882715.271380099</v>
+        <v>2112992.945144508</v>
       </c>
       <c r="J47" t="n">
-        <v>2167177.003303026</v>
+        <v>2076590.31585919</v>
       </c>
       <c r="K47" t="n">
-        <v>2160651.018302334</v>
+        <v>2157443.761752869</v>
       </c>
       <c r="L47" t="n">
-        <v>2172771.302038479</v>
+        <v>2235698.649488108</v>
       </c>
       <c r="M47" t="n">
-        <v>2259231.752817062</v>
+        <v>2296676.831213331</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>907895.6844096737</v>
+        <v>5394748.089067247</v>
       </c>
       <c r="C48" t="n">
-        <v>854825.7784808137</v>
+        <v>5449096.12803496</v>
       </c>
       <c r="D48" t="n">
-        <v>742556.928257406</v>
+        <v>5810982.943743104</v>
       </c>
       <c r="E48" t="n">
-        <v>760229.2605231773</v>
+        <v>5436040.648812843</v>
       </c>
       <c r="F48" t="n">
-        <v>769843.0457377881</v>
+        <v>5573281.764348748</v>
       </c>
       <c r="G48" t="n">
-        <v>1193054.658184392</v>
+        <v>5646488.728753597</v>
       </c>
       <c r="H48" t="n">
-        <v>868462.3167270309</v>
+        <v>5483881.423830453</v>
       </c>
       <c r="I48" t="n">
-        <v>887825.9353543057</v>
+        <v>5913247.252402786</v>
       </c>
       <c r="J48" t="n">
-        <v>891965.3493766779</v>
+        <v>5624537.16500166</v>
       </c>
       <c r="K48" t="n">
-        <v>936744.6325390165</v>
+        <v>6558740.717875725</v>
       </c>
       <c r="L48" t="n">
-        <v>912197.1902979622</v>
+        <v>6679019.052721034</v>
       </c>
       <c r="M48" t="n">
-        <v>926930.9726218703</v>
+        <v>6273447.031682107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>767314.4784464415</v>
+        <v>631761.0661109523</v>
       </c>
       <c r="C49" t="n">
-        <v>678198.2009195578</v>
+        <v>746491.0095730233</v>
       </c>
       <c r="D49" t="n">
-        <v>924118.2926239963</v>
+        <v>601857.4130711849</v>
       </c>
       <c r="E49" t="n">
-        <v>812881.8997477191</v>
+        <v>594631.3440183211</v>
       </c>
       <c r="F49" t="n">
-        <v>900317.0594770628</v>
+        <v>657292.3518451353</v>
       </c>
       <c r="G49" t="n">
-        <v>729497.3047307862</v>
+        <v>581263.7498986688</v>
       </c>
       <c r="H49" t="n">
-        <v>688667.223625581</v>
+        <v>661616.9400473499</v>
       </c>
       <c r="I49" t="n">
-        <v>1023664.056640264</v>
+        <v>847324.1515075562</v>
       </c>
       <c r="J49" t="n">
-        <v>939241.372064666</v>
+        <v>899635.4411964195</v>
       </c>
       <c r="K49" t="n">
-        <v>931567.7070551671</v>
+        <v>815271.5127547126</v>
       </c>
       <c r="L49" t="n">
-        <v>902044.8419618594</v>
+        <v>733027.8549611156</v>
       </c>
       <c r="M49" t="n">
-        <v>707485.1677741233</v>
+        <v>829632.8495403131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2090387.264779279</v>
+        <v>2922442.210230494</v>
       </c>
       <c r="C50" t="n">
-        <v>2085524.305725774</v>
+        <v>2811534.966991201</v>
       </c>
       <c r="D50" t="n">
-        <v>2280654.482859416</v>
+        <v>2895004.155754899</v>
       </c>
       <c r="E50" t="n">
-        <v>2244160.54015058</v>
+        <v>2960786.86238696</v>
       </c>
       <c r="F50" t="n">
-        <v>2050991.759300823</v>
+        <v>3074108.155376505</v>
       </c>
       <c r="G50" t="n">
-        <v>2296336.796804581</v>
+        <v>2989571.43411297</v>
       </c>
       <c r="H50" t="n">
-        <v>2069031.62764534</v>
+        <v>3170357.393607979</v>
       </c>
       <c r="I50" t="n">
-        <v>2171692.775730013</v>
+        <v>3294383.219781948</v>
       </c>
       <c r="J50" t="n">
-        <v>2324141.695261276</v>
+        <v>3295833.666509359</v>
       </c>
       <c r="K50" t="n">
-        <v>2414008.109047803</v>
+        <v>3805812.299967945</v>
       </c>
       <c r="L50" t="n">
-        <v>2451008.722666855</v>
+        <v>3630399.739112081</v>
       </c>
       <c r="M50" t="n">
-        <v>2621103.600003307</v>
+        <v>3741945.560643573</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3236890.449223482</v>
+        <v>2796074.409939017</v>
       </c>
       <c r="C51" t="n">
-        <v>3029661.16644509</v>
+        <v>3043960.102152438</v>
       </c>
       <c r="D51" t="n">
-        <v>2990832.705365689</v>
+        <v>3028860.537144549</v>
       </c>
       <c r="E51" t="n">
-        <v>2796429.771180062</v>
+        <v>3153997.302319118</v>
       </c>
       <c r="F51" t="n">
-        <v>2751226.100046333</v>
+        <v>3149531.319491476</v>
       </c>
       <c r="G51" t="n">
-        <v>2914803.53232123</v>
+        <v>3067326.287793726</v>
       </c>
       <c r="H51" t="n">
-        <v>3104722.213005604</v>
+        <v>3287344.239246335</v>
       </c>
       <c r="I51" t="n">
-        <v>2827303.57131497</v>
+        <v>3446818.006199694</v>
       </c>
       <c r="J51" t="n">
-        <v>3126134.10868245</v>
+        <v>3632414.219137234</v>
       </c>
       <c r="K51" t="n">
-        <v>2950828.053355713</v>
+        <v>3643962.110461736</v>
       </c>
       <c r="L51" t="n">
-        <v>3167381.961481633</v>
+        <v>3796392.431022906</v>
       </c>
       <c r="M51" t="n">
-        <v>3587666.79459311</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2327978.532679918</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2648033.782316632</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2226417.164144588</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2918847.416678346</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3219895.006948064</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3530382.627383196</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2853174.563645073</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2484282.012062265</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3336636.032278433</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3028387.858302851</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2762830.586777789</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2842614.202835278</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2458534.287618506</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2261623.16466336</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2244508.742549387</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2308671.304557745</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2134194.082935638</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2230495.016968238</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2184825.050310339</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2167119.509721608</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2380904.776550851</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2361520.420270513</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2390581.686825695</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2600688.397758072</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1479148.13966736</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1352545.659129604</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1569909.969031408</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1606992.12061932</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1396952.33706743</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1360128.453010599</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1353373.764068041</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1612408.940832291</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1722117.097430529</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1346013.604518048</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1496320.031105741</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1969009.430188096</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4465781.167321188</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5010051.37641889</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4635150.476302824</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5720342.908898191</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5012342.235813948</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4594501.711982219</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3730220.457791315</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3769516.214456617</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5531104.321907269</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3930386.257817265</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3714967.870804895</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5381762.404938198</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3849987.241474367</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4068454.477715244</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4356105.134009244</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4423089.427938598</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3958827.554664602</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4123274.476524657</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3487006.03320542</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4240781.171398064</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3959852.192670732</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4068443.256725951</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4521075.970714232</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4661875.401202242</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5316911.941597667</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5233490.817914139</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5344526.80319446</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5620650.017315373</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4840476.970784894</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4965944.630603353</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4539637.39769771</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4154879.075818374</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4865152.201695158</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5376957.56600305</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5874433.075434478</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6333887.526731678</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5210638.151189577</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5100296.485315709</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5593341.836957879</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5827134.255950261</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5176810.945946729</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5522894.689225559</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4629853.60837908</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4652862.265483898</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5041612.378005944</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5889497.13630328</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5606271.29767106</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6049056.473297365</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3893807.240662228</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3388578.537649916</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3238191.293142459</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3169685.70691265</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2981562.563029113</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3578328.322492612</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3096900.81435047</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2592163.490460651</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3267657.596539328</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3120474.473574676</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3262744.454076406</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3682968.861099231</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4074377.469205972</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4241097.766745943</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4984418.607298734</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4619559.819430027</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4605599.78732933</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4250213.770917078</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3717239.505289366</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3680240.074479437</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4432288.999582142</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4094133.023587187</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4010609.155460001</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4408578.582136803</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2476194.820172511</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2793604.54265064</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2889072.939085588</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3324131.419182339</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3817620.008596998</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3012866.240548986</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2436056.730315667</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1872717.837529992</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3244890.865274858</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2379560.536543173</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2724198.894962976</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3158193.370706959</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6040987.51946169</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5710448.973110116</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5910239.513775541</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5685212.012983456</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5875385.025696079</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6398837.873807093</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5002528.055904625</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4599131.550570467</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5605796.009521638</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5235384.702235807</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5083884.449114386</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6065818.501579943</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3047194.247561864</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2887960.771502453</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3184157.184622992</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3176020.236998309</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3604859.019603364</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3136533.329383303</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2224575.445499269</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3084255.717181844</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3527287.475864367</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3178947.156249929</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2757805.081127971</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3338671.427589712</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2164660.008315314</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2143004.386364333</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1978709.887803449</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2610512.393996844</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2147952.199681627</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2051662.272906858</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1382488.19327839</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1826342.4136573</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2180494.74831487</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1956875.482476285</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2428522.489586791</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2059047.444533648</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1765132.168703045</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1704824.884560317</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1714267.890654443</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1805455.707856024</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1603396.09661837</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1629752.298071629</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1753123.990097995</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1812337.373448875</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2051900.498522863</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2044008.542073233</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2146247.938402682</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2236017.792215633</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4917679.068966267</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5307723.620754521</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5368282.700048227</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5732909.43410171</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5355696.477305719</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5485771.235600918</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5547858.448288258</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5368527.579655474</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5815882.179030996</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5529997.658285652</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6458571.045816559</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6568363.854676326</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>659337.2839239704</v>
-      </c>
-      <c r="C67" t="n">
-        <v>617279.9799995986</v>
-      </c>
-      <c r="D67" t="n">
-        <v>734806.0854797914</v>
-      </c>
-      <c r="E67" t="n">
-        <v>594189.7017775674</v>
-      </c>
-      <c r="F67" t="n">
-        <v>591128.9200468919</v>
-      </c>
-      <c r="G67" t="n">
-        <v>656559.1775967017</v>
-      </c>
-      <c r="H67" t="n">
-        <v>581306.6846606543</v>
-      </c>
-      <c r="I67" t="n">
-        <v>660567.1497716107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>843148.9935365331</v>
-      </c>
-      <c r="K67" t="n">
-        <v>900133.9465906736</v>
-      </c>
-      <c r="L67" t="n">
-        <v>819649.2550144339</v>
-      </c>
-      <c r="M67" t="n">
-        <v>740468.6986302404</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2803848.377407043</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2907910.15557162</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2808316.185824946</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2903223.424607856</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2980416.727304913</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3100919.035882534</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3018715.145362234</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3200060.101148123</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3314970.055474118</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3331452.960577562</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3852368.41493108</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3683903.787525465</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3000005.870121644</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3127812.0192185</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3433720.914098853</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3467453.271209977</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3632824.051082187</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3668954.617943489</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3618548.964684383</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3879364.198479164</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4055571.451028341</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4330055.580278357</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4412277.124606621</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4617629.002260486</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1829616.198248886</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1767741.5420806</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2075512.883453646</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2411314.285570249</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2708032.37554639</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3290741.719438481</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3016394.879453671</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2947311.286580602</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2925579.031224582</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3558177.343008179</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3428252.220397271</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2719219.227906261</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>15297784.5448012</v>
-      </c>
-      <c r="C71" t="n">
-        <v>16584156.73033014</v>
-      </c>
-      <c r="D71" t="n">
-        <v>18236737.64506561</v>
-      </c>
-      <c r="E71" t="n">
-        <v>18607778.99163793</v>
-      </c>
-      <c r="F71" t="n">
-        <v>19349973.17972782</v>
-      </c>
-      <c r="G71" t="n">
-        <v>29695560.22043266</v>
-      </c>
-      <c r="H71" t="n">
-        <v>12329041.50684392</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20679413.14460958</v>
-      </c>
-      <c r="J71" t="n">
-        <v>23585936.94300052</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20032669.86927423</v>
-      </c>
-      <c r="L71" t="n">
-        <v>19118767.9363278</v>
-      </c>
-      <c r="M71" t="n">
-        <v>20229454.99709779</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>6416896.15148825</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5361586.241285449</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5310758.197124111</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4176477.435520625</v>
-      </c>
-      <c r="F72" t="n">
-        <v>6648988.120340001</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5400332.06164441</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4615221.194360284</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6298897.289181747</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7246240.359386068</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6943439.438474883</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5305094.420159765</v>
-      </c>
-      <c r="M72" t="n">
-        <v>6613564.865938624</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>4170802.395400746</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3988088.303752968</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4256189.521666562</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4887691.3428628</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4577067.418261819</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5453465.103155565</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4740843.140068281</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5103995.96710464</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7731251.754335957</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7024559.041235073</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5418122.561926643</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6358869.036156403</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>14767982.45627996</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13787986.97456879</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17161100.1435364</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16710225.67160897</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16163430.95410962</v>
-      </c>
-      <c r="G74" t="n">
-        <v>24210099.8045022</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10577048.01042533</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16830880.55721111</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18912631.39304971</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18378353.51448373</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16049802.0995288</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18286933.17729352</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24622021.60839833</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25011222.906643</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24858816.92521287</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25187684.45956095</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24675839.30052274</v>
-      </c>
-      <c r="G75" t="n">
-        <v>30821468.91580095</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23706256.94959421</v>
-      </c>
-      <c r="I75" t="n">
-        <v>23655545.51470647</v>
-      </c>
-      <c r="J75" t="n">
-        <v>25747834.46509387</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29928317.68982863</v>
-      </c>
-      <c r="L75" t="n">
-        <v>29915066.45074092</v>
-      </c>
-      <c r="M75" t="n">
-        <v>34137458.09581654</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1933770.927924106</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2384926.911130295</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3073885.415636496</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3990243.067591925</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4375259.521451082</v>
-      </c>
-      <c r="G76" t="n">
-        <v>5073742.238775896</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3509686.715001694</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2866856.665848932</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6328621.84302754</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5921946.520555309</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5202672.047610269</v>
-      </c>
-      <c r="M76" t="n">
-        <v>5215077.733082233</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>7688267.195557292</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7832358.291612499</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8782718.07997649</v>
-      </c>
-      <c r="E77" t="n">
-        <v>10226855.72067897</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10573172.20657465</v>
-      </c>
-      <c r="G77" t="n">
-        <v>9273449.960459139</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9399406.440788403</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10581044.58288401</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10957054.03105682</v>
-      </c>
-      <c r="K77" t="n">
-        <v>10501002.17084152</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10740134.31978625</v>
-      </c>
-      <c r="M77" t="n">
-        <v>10031988.19957689</v>
+        <v>3873325.006121624</v>
       </c>
     </row>
   </sheetData>
